--- a/docs/api_analysis.xlsx
+++ b/docs/api_analysis.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawan Kumar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawan Kumar\work\uphrh-ecred-sp10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186ACFA-6F43-4CE9-8420-4D7D9EFB822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE829BE8-4829-41A9-A0F4-B8EB55BECABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{C3C98150-FEDB-401D-A34F-03A40625B6F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C3C98150-FEDB-401D-A34F-03A40625B6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>S. No.</t>
   </si>
@@ -219,9 +219,6 @@
     </r>
   </si>
   <si>
-    <t>not able to verify the functionality because UI not available</t>
-  </si>
-  <si>
     <t>Download</t>
   </si>
   <si>
@@ -238,11 +235,6 @@
 4. User should be able to download all the credentials in eResume mode (single file).</t>
   </si>
   <si>
-    <t>CertificateAPI - /api/v1/{entityname}/{idx}
-Note - DB of both RC and new apis in synch.
-&gt; Not able to verify the functionality from UI, render credentials available.</t>
-  </si>
-  <si>
     <t>credential Issuance</t>
   </si>
   <si>
@@ -297,9 +289,6 @@
     <t>1. User should be able to preview e-Resume before sharing.
 2. User should be able to select authorized verifier(s) from dropdown or enter email ID(s) to share.
 3. Success or error message should be displayed post completion of sharing process.</t>
-  </si>
-  <si>
-    <t>eResume not needed in the current delivery</t>
   </si>
   <si>
     <t>Credential Issuer</t>
@@ -538,6 +527,37 @@
   </si>
   <si>
     <t>address heading</t>
+  </si>
+  <si>
+    <t>Not in scope</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>available in ULP</t>
+  </si>
+  <si>
+    <t>not in scope</t>
+  </si>
+  <si>
+    <t>CertificateAPI - /api/v1/{entityname}/{idx}
+or /render api of ULP</t>
+  </si>
+  <si>
+    <t>api available in sunbird rc and ULP</t>
+  </si>
+  <si>
+    <t>not found or mapped</t>
+  </si>
+  <si>
+    <t>verify functionality available in ULP</t>
+  </si>
+  <si>
+    <t>can be achieved in ULP</t>
+  </si>
+  <si>
+    <t>available in ULP and RC</t>
   </si>
 </sst>
 </file>
@@ -620,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -643,11 +663,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,13 +728,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4D3BB0-445E-4880-86C6-E6F3D0C4C477}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,9 +1060,10 @@
     <col min="6" max="6" width="40.21875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,10 +1086,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1074,8 +1117,11 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1098,10 +1144,10 @@
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1112,22 +1158,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1135,25 +1184,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1161,25 +1213,28 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I6" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1187,252 +1242,276 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I8" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
       <c r="H13" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF31FE9-79CF-40D1-A9F0-F8C896E04D7A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1461,103 +1540,95 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
